--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2776748.514606627</v>
+        <v>2774860.933090225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>300.1190488611592</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.8682054096739</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.787420751036564</v>
       </c>
       <c r="C4" t="n">
-        <v>4.928357422960127</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>180.7264936474769</v>
+        <v>238.4258463375498</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2381480623296</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784904</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.1349288453415</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>95.68020095976658</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717411</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.61536016157044</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>75.06705067831058</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.88118599469414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>50.13491291997138</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.16481274941277</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>227.003985395615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>256.0328546330194</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>11.02431191417459</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>112.253642551079</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>53.59531571123727</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>42.92025750556543</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612117491</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523592</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789644</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.016392241183</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>763.7506936344325</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>377.9624410361883</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>371.0169402869848</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>357.0935362255757</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.250031532787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>195.250031532787</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>195.250031532787</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>195.250031532787</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>195.250031532787</v>
+        <v>62.81916439716906</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.250031532787</v>
+        <v>62.81916439716906</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
         <v>614.0661152341316</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.3318138408822</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.013560149308</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,58 +5024,58 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.2736218676852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>715.2736218676852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>715.2736218676852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>567.360528285292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799359</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471186</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909233</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909233</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>936.0662010112153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.2736218676852</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,37 +5267,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141285</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678161</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.18950298082</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.490124716567</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035279</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247851</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247851</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247851</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247851</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>736.1461909267678</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.993477800814</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>303.4575213834697</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899338</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698953</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.159861298439</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1448.274944376113</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1448.274944376113</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1193.590456170226</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.590456170226</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>965.6009052722088</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.8083261286787</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526318</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262065</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.1598612984388</v>
+        <v>192.3330639344402</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>192.3330639344402</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>192.3330639344402</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U22" t="n">
-        <v>1045.833900402343</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V22" t="n">
-        <v>791.1494121964562</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W22" t="n">
-        <v>791.1494121964562</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="X22" t="n">
-        <v>563.1598612984388</v>
+        <v>192.3330639344402</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.1598612984388</v>
+        <v>192.3330639344402</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701565</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766207</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918914</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507113</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507113</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028586</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473456</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687014</v>
+        <v>1129.22212203587</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811274</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W25" t="n">
-        <v>744.047464880951</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X25" t="n">
-        <v>744.047464880951</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.047464880951</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>391.6040140015115</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>638.3691419079756</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300437</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.59991596447</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>765.2096374174356</v>
+        <v>210.6046091886483</v>
       </c>
       <c r="C28" t="n">
-        <v>596.2734544895286</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>446.1568150771927</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>298.2437214947995</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>151.3537739968892</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609658</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609658</v>
+        <v>620.2426249169054</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609658</v>
+        <v>620.2426249169054</v>
       </c>
       <c r="X28" t="n">
-        <v>986.0022165609658</v>
+        <v>392.253074018888</v>
       </c>
       <c r="Y28" t="n">
-        <v>765.2096374174356</v>
+        <v>392.253074018888</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>167.8887746690276</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>316.9584588710875</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011341</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878255</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110234</v>
+        <v>439.5324299542151</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644873</v>
+        <v>326.3571123076788</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335224</v>
+        <v>283.0033168475118</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480325002</v>
+        <v>283.0033168475118</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159601</v>
+        <v>191.874234630972</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386981</v>
+        <v>902.6804289818906</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220516</v>
+        <v>730.4517433652438</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598923</v>
+        <v>565.4200295030843</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,7 +6974,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,25 +7017,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>251.1748338338031</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>400.2445180358629</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>1014.141587792752</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>1006.183580119175</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P42" t="n">
         <v>2525.810590821615</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7798,19 +7798,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.7176547498462</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>15.83804904622875</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.6230805871085</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>169.2863157167163</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.7164198729791</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>158.8724419039314</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>8.406710013101559</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544521</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119814</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8749102765737</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>213.2603911806623</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711621</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978193</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>148.2747143566548</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.86002301949833</v>
       </c>
       <c r="P36" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>73.64859338270571</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>113.6026921294542</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.9802687929759</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,25 +11379,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>148.1350559470641</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8056878613608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.7034673574007</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.4126481384179</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>52.2691498971564</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>59.2333670029624</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>30.2044977655579</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4986864224164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>54.99317854754887</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.8982527521404</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50.49195888409007</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.541309222703</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571512</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783893.4803848275</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814689.9817195717</v>
+        <v>814689.9817195716</v>
       </c>
     </row>
     <row r="12">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="K2" t="n">
-        <v>630574.3128851689</v>
+        <v>630574.3128851682</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448201</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>6.271844493563424e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284548</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086706</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687082</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687068</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687074</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106716</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,7 +26451,7 @@
         <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196586</v>
+        <v>-202152.4534196587</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948858</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948856</v>
+        <v>387815.4257948855</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.9274190348</v>
+        <v>-33324.38654500688</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.649931889</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.109057861</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578613</v>
+        <v>491835.649931889</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578611</v>
+        <v>491835.6499318887</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652686</v>
+        <v>315412.430739296</v>
       </c>
       <c r="K6" t="n">
-        <v>449444.2689510332</v>
+        <v>449425.7752130986</v>
       </c>
       <c r="L6" t="n">
-        <v>483655.9641957366</v>
+        <v>483655.9641957367</v>
       </c>
       <c r="M6" t="n">
         <v>359197.8557627664</v>
       </c>
       <c r="N6" t="n">
-        <v>493998.8709966033</v>
+        <v>493998.8709966032</v>
       </c>
       <c r="O6" t="n">
         <v>493998.8709966036</v>
       </c>
       <c r="P6" t="n">
-        <v>449836.265693758</v>
+        <v>449836.2656937581</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964068</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,28 +26738,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541004</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.80372390319798</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.3697332463797</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>171.0445594309007</v>
       </c>
       <c r="C4" t="n">
-        <v>162.3184636756677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.5463981235306</v>
+        <v>126.8470454334578</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04372617964810388</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581006</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.59891281813907</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.0028406609164</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,19 +28141,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.025656883610093e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>363.8358297686019</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.7306875349203</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>166.413487634168</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -35984,7 +35984,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081123</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005181</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>481.9867828282167</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>257.2993485017906</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686872</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081123</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349491</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005181</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>492.0670153019445</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315249</v>
+        <v>215.5001249446263</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507427</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081092</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>255.4503488645131</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>495.6240934217706</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109073</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468864</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879393</v>
@@ -36917,10 +36917,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>481.4692877546678</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178378</v>
@@ -36929,10 +36929,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,10 +37166,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606066</v>
       </c>
       <c r="P36" t="n">
-        <v>450.0931893251296</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>406.8431667807187</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>155.5128710843609</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>476.4046458434423</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>430.4987581881724</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
